--- a/data/trans_orig/P42B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Habitat-trans_orig.xlsx
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4606</v>
+        <v>4373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007125842519834255</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03786652359173728</v>
+        <v>0.03594926608344796</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>4644</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1710</v>
+        <v>1664</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9840</v>
+        <v>10321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03817486476785294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01405716229007666</v>
+        <v>0.01367906369770686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08089111356416999</v>
+        <v>0.08484702009834424</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>9291</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4625</v>
+        <v>4703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16732</v>
+        <v>17224</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07637720483834511</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03801976207151482</v>
+        <v>0.03865929876626401</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1375529855124845</v>
+        <v>0.1415949113825656</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>80368</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68976</v>
+        <v>69216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90415</v>
+        <v>90209</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6606950265310831</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5670402586306446</v>
+        <v>0.5690121137773122</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7432890097458246</v>
+        <v>0.7415903042818858</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>5377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1835</v>
+        <v>1906</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11236</v>
+        <v>12274</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04420335349460651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01508180901350105</v>
+        <v>0.01567252484660584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09236575904338987</v>
+        <v>0.1009028994569542</v>
       </c>
     </row>
     <row r="9">
@@ -769,19 +769,19 @@
         <v>21096</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14188</v>
+        <v>14022</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30150</v>
+        <v>30061</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1734237078482781</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.116640252779659</v>
+        <v>0.1152763628260551</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2478608689112503</v>
+        <v>0.2471257793796602</v>
       </c>
     </row>
     <row r="10">
@@ -852,19 +852,19 @@
         <v>4442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11178</v>
+        <v>11078</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02287038676287255</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005898910825567294</v>
+        <v>0.005902904502501327</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05754403439101782</v>
+        <v>0.05702885705506007</v>
       </c>
     </row>
     <row r="13">
@@ -881,19 +881,19 @@
         <v>7848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3856</v>
+        <v>3790</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14351</v>
+        <v>14755</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04040004255542452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01985209800587232</v>
+        <v>0.01951243259808205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0738817085273502</v>
+        <v>0.0759623456841086</v>
       </c>
     </row>
     <row r="14">
@@ -910,19 +910,19 @@
         <v>150759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137111</v>
+        <v>136182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161775</v>
+        <v>161208</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7761233946144234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7058641715272855</v>
+        <v>0.7010822321916605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8328382220707167</v>
+        <v>0.8299172042934555</v>
       </c>
     </row>
     <row r="15">
@@ -939,19 +939,19 @@
         <v>6079</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13288</v>
+        <v>13113</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03129343738817159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01079693831351857</v>
+        <v>0.01076203965389012</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0684071399780139</v>
+        <v>0.06750778106808361</v>
       </c>
     </row>
     <row r="16">
@@ -968,19 +968,19 @@
         <v>25118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16947</v>
+        <v>16861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37620</v>
+        <v>35827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1293127386791079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08724402706214805</v>
+        <v>0.08680070758614097</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1936719294518137</v>
+        <v>0.1844423882093585</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4534</v>
+        <v>4932</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007433973890215281</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03436558778092912</v>
+        <v>0.0373815739686651</v>
       </c>
     </row>
     <row r="19">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6804</v>
+        <v>6657</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01446425195838621</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05157567544700903</v>
+        <v>0.0504618448063421</v>
       </c>
     </row>
     <row r="20">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5780</v>
+        <v>5517</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01312446027500768</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04381165370271595</v>
+        <v>0.04181582467368824</v>
       </c>
     </row>
     <row r="21">
@@ -1117,19 +1117,19 @@
         <v>107487</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97476</v>
+        <v>97260</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>115047</v>
+        <v>114735</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8147424416695904</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7388635675845669</v>
+        <v>0.737225731431746</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8720530117969824</v>
+        <v>0.8696890751590989</v>
       </c>
     </row>
     <row r="22">
@@ -1146,19 +1146,19 @@
         <v>2726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7301</v>
+        <v>7427</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02066205809920894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006542424529062769</v>
+        <v>0.006533917531592889</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05533865833505079</v>
+        <v>0.05629769673714601</v>
       </c>
     </row>
     <row r="23">
@@ -1175,19 +1175,19 @@
         <v>17094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10207</v>
+        <v>10739</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25621</v>
+        <v>25787</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1295728141075915</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07736687664083386</v>
+        <v>0.08139841521731785</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1942021926901562</v>
+        <v>0.1954652623275359</v>
       </c>
     </row>
     <row r="24">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4871</v>
+        <v>4919</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004720158397979157</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02356781162459276</v>
+        <v>0.02379856163739858</v>
       </c>
     </row>
     <row r="26">
@@ -1266,19 +1266,19 @@
         <v>2841</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7574</v>
+        <v>7725</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01374537016605657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004326163008669963</v>
+        <v>0.004302300641840965</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0366444660652718</v>
+        <v>0.03737243257381447</v>
       </c>
     </row>
     <row r="27">
@@ -1295,19 +1295,19 @@
         <v>11754</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5989</v>
+        <v>6001</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19616</v>
+        <v>19505</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05686781109221588</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02897468650902189</v>
+        <v>0.02903481009380715</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09490132157297533</v>
+        <v>0.09436306207935935</v>
       </c>
     </row>
     <row r="28">
@@ -1324,19 +1324,19 @@
         <v>145698</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>131264</v>
+        <v>130483</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>157811</v>
+        <v>158599</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7048877663545798</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6350541139136313</v>
+        <v>0.6312752142728207</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7634890861532408</v>
+        <v>0.7672999107557539</v>
       </c>
     </row>
     <row r="29">
@@ -1353,19 +1353,19 @@
         <v>16638</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9265</v>
+        <v>9087</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27333</v>
+        <v>26621</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08049538133690151</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0448222667590772</v>
+        <v>0.04396166019039269</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1322369311994021</v>
+        <v>0.1287908196258735</v>
       </c>
     </row>
     <row r="30">
@@ -1382,19 +1382,19 @@
         <v>28789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18842</v>
+        <v>19544</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39786</v>
+        <v>38571</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1392835126522671</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09115691264133155</v>
+        <v>0.09455273229933375</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1924826736819062</v>
+        <v>0.1866071101939722</v>
       </c>
     </row>
     <row r="31">
@@ -1444,19 +1444,19 @@
         <v>2823</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7877</v>
+        <v>7507</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004313424273206853</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00125095378895103</v>
+        <v>0.001316901309908745</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01203513665132991</v>
+        <v>0.01146883769799683</v>
       </c>
     </row>
     <row r="33">
@@ -1473,19 +1473,19 @@
         <v>13836</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7911</v>
+        <v>7677</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>22841</v>
+        <v>22569</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02113866297867358</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01208703635656748</v>
+        <v>0.01173007034512648</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03489811981071405</v>
+        <v>0.03448182379171579</v>
       </c>
     </row>
     <row r="34">
@@ -1502,19 +1502,19 @@
         <v>30624</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21131</v>
+        <v>20844</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>42034</v>
+        <v>42885</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04678920067041029</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03228555573927464</v>
+        <v>0.03184599675607359</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0642211514801516</v>
+        <v>0.06552147352254074</v>
       </c>
     </row>
     <row r="35">
@@ -1531,19 +1531,19 @@
         <v>484313</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>462446</v>
+        <v>462618</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>505007</v>
+        <v>505244</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7399587140533042</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7065489983117857</v>
+        <v>0.7068129384815227</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7715771859387025</v>
+        <v>0.7719382072008186</v>
       </c>
     </row>
     <row r="36">
@@ -1560,19 +1560,19 @@
         <v>30820</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20797</v>
+        <v>20530</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>45135</v>
+        <v>43487</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04708793335115519</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03177411724751907</v>
+        <v>0.03136675397059274</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06896007645694004</v>
+        <v>0.0664424958447261</v>
       </c>
     </row>
     <row r="37">
@@ -1589,19 +1589,19 @@
         <v>92098</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>76213</v>
+        <v>75508</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>112739</v>
+        <v>110385</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.14071206467325</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.116442139036623</v>
+        <v>0.1153647474304056</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1722483442965661</v>
+        <v>0.1686526087316564</v>
       </c>
     </row>
     <row r="38">
@@ -1769,19 +1769,19 @@
         <v>15834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8876</v>
+        <v>8854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27130</v>
+        <v>25858</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03060616753316472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01715709122029917</v>
+        <v>0.01711297183143655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05243871276382629</v>
+        <v>0.04998032244311563</v>
       </c>
     </row>
     <row r="5">
@@ -1798,19 +1798,19 @@
         <v>6066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2158</v>
+        <v>2187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13034</v>
+        <v>15285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01172460098177807</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004170658007841462</v>
+        <v>0.004227057512659779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02519350268184183</v>
+        <v>0.02954452488528529</v>
       </c>
     </row>
     <row r="6">
@@ -1827,19 +1827,19 @@
         <v>5262</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2080</v>
+        <v>2047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11885</v>
+        <v>12369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01017130155261966</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004020992425515734</v>
+        <v>0.003955685897076769</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02297200101710143</v>
+        <v>0.02390845584924514</v>
       </c>
     </row>
     <row r="7">
@@ -1856,19 +1856,19 @@
         <v>356428</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>333197</v>
+        <v>333061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>375345</v>
+        <v>376790</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6889400653469919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6440364788168922</v>
+        <v>0.6437748845348845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7255041073802851</v>
+        <v>0.7282973278954474</v>
       </c>
     </row>
     <row r="8">
@@ -1885,19 +1885,19 @@
         <v>28391</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19631</v>
+        <v>19166</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43035</v>
+        <v>41029</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05487741424950834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03794418680721864</v>
+        <v>0.03704673620883832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08318272555309017</v>
+        <v>0.07930591002049167</v>
       </c>
     </row>
     <row r="9">
@@ -1914,19 +1914,19 @@
         <v>105376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89611</v>
+        <v>88198</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>126477</v>
+        <v>126720</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2036804503359373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1732092058486858</v>
+        <v>0.1704781758632179</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2444684177314236</v>
+        <v>0.2449372414881435</v>
       </c>
     </row>
     <row r="10">
@@ -1976,19 +1976,19 @@
         <v>7418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3197</v>
+        <v>3046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14922</v>
+        <v>14125</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009536175706049796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004109812703716634</v>
+        <v>0.003915535920506585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01918291436303126</v>
+        <v>0.01815850369480778</v>
       </c>
     </row>
     <row r="12">
@@ -2005,19 +2005,19 @@
         <v>5663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2205</v>
+        <v>2223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12438</v>
+        <v>11945</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007280695546467691</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002834543671838795</v>
+        <v>0.002857708725006072</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01598981012502017</v>
+        <v>0.01535600132578668</v>
       </c>
     </row>
     <row r="13">
@@ -2034,19 +2034,19 @@
         <v>11353</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6112</v>
+        <v>6229</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19894</v>
+        <v>19731</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01459467516033922</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007857163994153709</v>
+        <v>0.008008297683507221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02557524419066056</v>
+        <v>0.02536475398855273</v>
       </c>
     </row>
     <row r="14">
@@ -2063,19 +2063,19 @@
         <v>557696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528916</v>
+        <v>529192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>582105</v>
+        <v>583762</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7169468326927603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6799493979831259</v>
+        <v>0.6803034459024894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.748326363903046</v>
+        <v>0.750456335243313</v>
       </c>
     </row>
     <row r="15">
@@ -2092,19 +2092,19 @@
         <v>50441</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38176</v>
+        <v>37755</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>67103</v>
+        <v>67311</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06484500442994517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04907667656712385</v>
+        <v>0.04853587058545722</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08626433785995756</v>
+        <v>0.08653180395576689</v>
       </c>
     </row>
     <row r="16">
@@ -2121,19 +2121,19 @@
         <v>145305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124610</v>
+        <v>124276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168387</v>
+        <v>171493</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1867966164644378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1601920703147804</v>
+        <v>0.159763541510945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2164704600295231</v>
+        <v>0.2204631660079789</v>
       </c>
     </row>
     <row r="17">
@@ -2183,19 +2183,19 @@
         <v>10565</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5127</v>
+        <v>5094</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17874</v>
+        <v>17879</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01651791614369391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008015344705276728</v>
+        <v>0.007964046556266015</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02794589182745147</v>
+        <v>0.02795456232764451</v>
       </c>
     </row>
     <row r="19">
@@ -2212,19 +2212,19 @@
         <v>3649</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9233</v>
+        <v>9880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005705164914353866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001392794120939547</v>
+        <v>0.001404867621788951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01443550596780652</v>
+        <v>0.01544680014033713</v>
       </c>
     </row>
     <row r="20">
@@ -2241,19 +2241,19 @@
         <v>10165</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4971</v>
+        <v>5050</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18410</v>
+        <v>19135</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01589295260157848</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007772058401605582</v>
+        <v>0.007896093289948766</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02878362306358193</v>
+        <v>0.02991807355712799</v>
       </c>
     </row>
     <row r="21">
@@ -2270,19 +2270,19 @@
         <v>486869</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>464921</v>
+        <v>464652</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>507908</v>
+        <v>507881</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7612207327969168</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7269041670948647</v>
+        <v>0.7264846225983339</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7941150311419821</v>
+        <v>0.7940732140112001</v>
       </c>
     </row>
     <row r="22">
@@ -2299,19 +2299,19 @@
         <v>30203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20801</v>
+        <v>21053</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42854</v>
+        <v>41832</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04722269812709724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0325225852279057</v>
+        <v>0.03291655500838423</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06700264279610497</v>
+        <v>0.0654047918395437</v>
       </c>
     </row>
     <row r="23">
@@ -2328,19 +2328,19 @@
         <v>98139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80771</v>
+        <v>80969</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>120383</v>
+        <v>118060</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1534405354163596</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1262853027698542</v>
+        <v>0.126595690987933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1882183309072929</v>
+        <v>0.1845867287785689</v>
       </c>
     </row>
     <row r="24">
@@ -2390,19 +2390,19 @@
         <v>9913</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4733</v>
+        <v>4920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17821</v>
+        <v>18696</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01230756188868106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005876694913049142</v>
+        <v>0.006108030672121917</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02212629423619756</v>
+        <v>0.02321263410616554</v>
       </c>
     </row>
     <row r="26">
@@ -2419,19 +2419,19 @@
         <v>9717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4878</v>
+        <v>4776</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17485</v>
+        <v>17684</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01206443029093958</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006055754707409666</v>
+        <v>0.005929580235063465</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02170870508323074</v>
+        <v>0.0219550839891327</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>16189</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9237</v>
+        <v>9720</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28175</v>
+        <v>27281</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02009930343313524</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01146796463928021</v>
+        <v>0.01206733010489445</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03498101285809617</v>
+        <v>0.03387014066759463</v>
       </c>
     </row>
     <row r="28">
@@ -2477,19 +2477,19 @@
         <v>574733</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>549085</v>
+        <v>549295</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>601026</v>
+        <v>602749</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.713559868014178</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6817170847725952</v>
+        <v>0.6819783358039321</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7462040291793268</v>
+        <v>0.7483439364614539</v>
       </c>
     </row>
     <row r="29">
@@ -2506,19 +2506,19 @@
         <v>52650</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38897</v>
+        <v>39439</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68448</v>
+        <v>68461</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06536760515348565</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04829316066306867</v>
+        <v>0.04896590800157449</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08498229150675866</v>
+        <v>0.08499793734551961</v>
       </c>
     </row>
     <row r="30">
@@ -2535,19 +2535,19 @@
         <v>142242</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>119006</v>
+        <v>121097</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>165891</v>
+        <v>163697</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1766012312195804</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1477524390067328</v>
+        <v>0.1503476387847145</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2059622461819574</v>
+        <v>0.2032378243445944</v>
       </c>
     </row>
     <row r="31">
@@ -2597,19 +2597,19 @@
         <v>43730</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32517</v>
+        <v>32006</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>59571</v>
+        <v>58981</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01595830772500044</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01186625320876025</v>
+        <v>0.01167985260683401</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02173927123178709</v>
+        <v>0.02152377125987705</v>
       </c>
     </row>
     <row r="33">
@@ -2626,19 +2626,19 @@
         <v>25095</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>16460</v>
+        <v>16132</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>38773</v>
+        <v>37223</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.009158039594644772</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006006745221003048</v>
+        <v>0.005887027834408607</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01414924553842938</v>
+        <v>0.01358354875561856</v>
       </c>
     </row>
     <row r="34">
@@ -2655,19 +2655,19 @@
         <v>42969</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31028</v>
+        <v>31572</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>57900</v>
+        <v>59057</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01568054506323587</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01132299374003232</v>
+        <v>0.0115216227372185</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02112923695190601</v>
+        <v>0.02155172032821458</v>
       </c>
     </row>
     <row r="35">
@@ -2684,19 +2684,19 @@
         <v>1975725</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1920727</v>
+        <v>1928154</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2018752</v>
+        <v>2026797</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.720997399477816</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7009270458274339</v>
+        <v>0.7036373341166816</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7366989372583678</v>
+        <v>0.7396347213817189</v>
       </c>
     </row>
     <row r="36">
@@ -2713,19 +2713,19 @@
         <v>161686</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>137350</v>
+        <v>136391</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>189751</v>
+        <v>189757</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05900362928924896</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05012269316156184</v>
+        <v>0.04977278661324381</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06924541316351325</v>
+        <v>0.06924756916106013</v>
       </c>
     </row>
     <row r="37">
@@ -2742,19 +2742,19 @@
         <v>491062</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>451774</v>
+        <v>448990</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>535451</v>
+        <v>529607</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.179202078850054</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1648649263421489</v>
+        <v>0.1638491369150231</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1954009433026666</v>
+        <v>0.1932685119954938</v>
       </c>
     </row>
     <row r="38">
@@ -2922,19 +2922,19 @@
         <v>14335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7667</v>
+        <v>8374</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23964</v>
+        <v>23781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02882134772658969</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01541531012976272</v>
+        <v>0.01683703509908659</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04818268280157845</v>
+        <v>0.04781433008390715</v>
       </c>
     </row>
     <row r="5">
@@ -2951,19 +2951,19 @@
         <v>2896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8552</v>
+        <v>7795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005823111129542263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001913938560409585</v>
+        <v>0.001897695784330211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0171942637613307</v>
+        <v>0.01567208585444844</v>
       </c>
     </row>
     <row r="6">
@@ -2980,19 +2980,19 @@
         <v>21105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12576</v>
+        <v>13497</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31853</v>
+        <v>32158</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04243366072528382</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02528530402362267</v>
+        <v>0.02713688744358783</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06404344570223706</v>
+        <v>0.06465820586635045</v>
       </c>
     </row>
     <row r="7">
@@ -3009,19 +3009,19 @@
         <v>331705</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>308168</v>
+        <v>311543</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>352378</v>
+        <v>352810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.666930570811081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6196065141998744</v>
+        <v>0.6263920920629452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7084956634192617</v>
+        <v>0.7093637432401931</v>
       </c>
     </row>
     <row r="8">
@@ -3038,19 +3038,19 @@
         <v>27802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19136</v>
+        <v>18883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39375</v>
+        <v>38637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05589998901287399</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03847547524369398</v>
+        <v>0.0379654589481086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07916762117066362</v>
+        <v>0.07768365241627677</v>
       </c>
     </row>
     <row r="9">
@@ -3067,19 +3067,19 @@
         <v>99518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82018</v>
+        <v>81188</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>118461</v>
+        <v>117125</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2000913205946293</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1649064884181298</v>
+        <v>0.1632367329443142</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2381792930695904</v>
+        <v>0.2354927715354354</v>
       </c>
     </row>
     <row r="10">
@@ -3129,19 +3129,19 @@
         <v>28915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19651</v>
+        <v>19847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39591</v>
+        <v>41050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03416335291457822</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02321792208833283</v>
+        <v>0.02344943334030278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04677782728411956</v>
+        <v>0.04850120803673616</v>
       </c>
     </row>
     <row r="12">
@@ -3158,19 +3158,19 @@
         <v>2986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7788</v>
+        <v>8659</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003527439265726994</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001090314990945352</v>
+        <v>0.001093099994209205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.009201555614943397</v>
+        <v>0.01023016079366652</v>
       </c>
     </row>
     <row r="13">
@@ -3187,19 +3187,19 @@
         <v>33584</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23931</v>
+        <v>24108</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47524</v>
+        <v>47370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03968015957777779</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02827502318915632</v>
+        <v>0.02848366505987313</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05614995698306091</v>
+        <v>0.05596860503303655</v>
       </c>
     </row>
     <row r="14">
@@ -3216,19 +3216,19 @@
         <v>604896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>574668</v>
+        <v>576972</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>630006</v>
+        <v>630350</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7146944009295459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6789802218983633</v>
+        <v>0.6817017483552444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7443629762126273</v>
+        <v>0.7447693443099319</v>
       </c>
     </row>
     <row r="15">
@@ -3245,19 +3245,19 @@
         <v>52047</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40070</v>
+        <v>40229</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69012</v>
+        <v>69886</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06149424561719578</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04734308966092714</v>
+        <v>0.04753172999032484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08153918006731307</v>
+        <v>0.08257148036750377</v>
       </c>
     </row>
     <row r="16">
@@ -3274,19 +3274,19 @@
         <v>123943</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103844</v>
+        <v>104097</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146689</v>
+        <v>145727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1464404016951752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1226928037255763</v>
+        <v>0.1229917539735907</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1733153497732558</v>
+        <v>0.1721783295451074</v>
       </c>
     </row>
     <row r="17">
@@ -3336,19 +3336,19 @@
         <v>7653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3197</v>
+        <v>3169</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15381</v>
+        <v>15256</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01265737656192044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005287614021653672</v>
+        <v>0.005241585566441486</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02543882223116167</v>
+        <v>0.0252313399781766</v>
       </c>
     </row>
     <row r="19">
@@ -3365,19 +3365,19 @@
         <v>4941</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10785</v>
+        <v>11108</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008171857881325004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003180660570558842</v>
+        <v>0.003187521866371825</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01783687022924088</v>
+        <v>0.01837209011551504</v>
       </c>
     </row>
     <row r="20">
@@ -3394,19 +3394,19 @@
         <v>9232</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4319</v>
+        <v>4033</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16939</v>
+        <v>18006</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01526941508514874</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007143949107758465</v>
+        <v>0.006670126560166952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0280156900842131</v>
+        <v>0.02978041535216014</v>
       </c>
     </row>
     <row r="21">
@@ -3423,19 +3423,19 @@
         <v>514859</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>496063</v>
+        <v>494003</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>532670</v>
+        <v>530313</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8515196347611547</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8204325535952504</v>
+        <v>0.8170255001269251</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8809770146086412</v>
+        <v>0.8770783246104317</v>
       </c>
     </row>
     <row r="22">
@@ -3452,19 +3452,19 @@
         <v>33384</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22445</v>
+        <v>23852</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44783</v>
+        <v>46438</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05521411762694101</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03712088631838726</v>
+        <v>0.03944899502290376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07406552635048284</v>
+        <v>0.07680303283461053</v>
       </c>
     </row>
     <row r="23">
@@ -3481,19 +3481,19 @@
         <v>34566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23842</v>
+        <v>23554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48850</v>
+        <v>46575</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05716759808351016</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0394324906754712</v>
+        <v>0.03895594681751764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08079273584551371</v>
+        <v>0.07703016066514463</v>
       </c>
     </row>
     <row r="24">
@@ -3543,19 +3543,19 @@
         <v>19406</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11240</v>
+        <v>11296</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29951</v>
+        <v>30139</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02332220009814093</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01350766438682229</v>
+        <v>0.01357497120716427</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0359946035327856</v>
+        <v>0.03622084524811209</v>
       </c>
     </row>
     <row r="26">
@@ -3572,19 +3572,19 @@
         <v>4259</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10728</v>
+        <v>10021</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005118353497852389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001332603293977748</v>
+        <v>0.001334627492076117</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01289270650750374</v>
+        <v>0.01204259808779976</v>
       </c>
     </row>
     <row r="27">
@@ -3601,19 +3601,19 @@
         <v>24855</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15957</v>
+        <v>15227</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>37316</v>
+        <v>36939</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02987061582197922</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01917648245493457</v>
+        <v>0.01829966438586596</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04484650001488562</v>
+        <v>0.04439287226543834</v>
       </c>
     </row>
     <row r="28">
@@ -3630,19 +3630,19 @@
         <v>628308</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>600171</v>
+        <v>602053</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>652095</v>
+        <v>653953</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7550968406060814</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7212827378742488</v>
+        <v>0.7235443059086617</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7836837350282296</v>
+        <v>0.7859175104728545</v>
       </c>
     </row>
     <row r="29">
@@ -3659,19 +3659,19 @@
         <v>33902</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23858</v>
+        <v>23654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48473</v>
+        <v>45724</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04074304261832372</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02867292558670656</v>
+        <v>0.02842680575150436</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0582542159072424</v>
+        <v>0.05495029021069919</v>
       </c>
     </row>
     <row r="30">
@@ -3688,19 +3688,19 @@
         <v>121359</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>101138</v>
+        <v>102423</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>144152</v>
+        <v>142075</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1458489473576223</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1215474961612324</v>
+        <v>0.1230918165260009</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1732415415439146</v>
+        <v>0.1707443853140784</v>
       </c>
     </row>
     <row r="31">
@@ -3750,19 +3750,19 @@
         <v>70309</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>54722</v>
+        <v>54825</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>87411</v>
+        <v>87694</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02528675594085847</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01968077445875947</v>
+        <v>0.01971785495388031</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03143779784809268</v>
+        <v>0.03153926126255833</v>
       </c>
     </row>
     <row r="33">
@@ -3779,19 +3779,19 @@
         <v>15082</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8956</v>
+        <v>8151</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>24477</v>
+        <v>24484</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.005424157250192557</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003220907456164684</v>
+        <v>0.002931434963310799</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.008803070346362974</v>
+        <v>0.008805741757932297</v>
       </c>
     </row>
     <row r="34">
@@ -3808,19 +3808,19 @@
         <v>88776</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>72050</v>
+        <v>71112</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>110900</v>
+        <v>110436</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03192872119166387</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02591305982305587</v>
+        <v>0.02557556922575314</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03988549774130887</v>
+        <v>0.03971881986607136</v>
       </c>
     </row>
     <row r="35">
@@ -3837,19 +3837,19 @@
         <v>2079768</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2037768</v>
+        <v>2030725</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2126829</v>
+        <v>2126411</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7479953990775303</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7328898575029141</v>
+        <v>0.730356967782291</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7649209164230867</v>
+        <v>0.7647704876770547</v>
       </c>
     </row>
     <row r="36">
@@ -3866,19 +3866,19 @@
         <v>147136</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>122134</v>
+        <v>124699</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>168949</v>
+        <v>173656</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05291781149758652</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04392579477087382</v>
+        <v>0.04484825069834276</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06076293394245115</v>
+        <v>0.06245584852267722</v>
       </c>
     </row>
     <row r="37">
@@ -3895,19 +3895,19 @@
         <v>379385</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>345373</v>
+        <v>341357</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>414905</v>
+        <v>418505</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1364471550421682</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1242143868614119</v>
+        <v>0.1227702307668294</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.149221846822495</v>
+        <v>0.1505166325289742</v>
       </c>
     </row>
     <row r="38">
@@ -4075,19 +4075,19 @@
         <v>13518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8106</v>
+        <v>8590</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20627</v>
+        <v>21244</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03487439581435467</v>
+        <v>0.03487439581435466</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02091266533482834</v>
+        <v>0.0221601320220744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05321352256940041</v>
+        <v>0.05480499011531007</v>
       </c>
     </row>
     <row r="5">
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3700</v>
+        <v>3991</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002085293820434957</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009546558869660512</v>
+        <v>0.01029642575368056</v>
       </c>
     </row>
     <row r="6">
@@ -4133,19 +4133,19 @@
         <v>21573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15558</v>
+        <v>15400</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28967</v>
+        <v>28932</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05565600735976039</v>
+        <v>0.05565600735976038</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04013631655920149</v>
+        <v>0.03972867548126313</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07473040484790695</v>
+        <v>0.07463974658204278</v>
       </c>
     </row>
     <row r="7">
@@ -4162,19 +4162,19 @@
         <v>266504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>250347</v>
+        <v>249836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279699</v>
+        <v>281917</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6875367229878494</v>
+        <v>0.6875367229878493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6458554768597213</v>
+        <v>0.6445359023289409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7215779652270586</v>
+        <v>0.7273015391536926</v>
       </c>
     </row>
     <row r="8">
@@ -4191,19 +4191,19 @@
         <v>12560</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6628</v>
+        <v>6303</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24575</v>
+        <v>23545</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0324020270574906</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01709858639400629</v>
+        <v>0.01626195391006752</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06339949963725885</v>
+        <v>0.0607435720262681</v>
       </c>
     </row>
     <row r="9">
@@ -4220,19 +4220,19 @@
         <v>72658</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61446</v>
+        <v>59853</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>86962</v>
+        <v>87156</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.18744555296011</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1585209589325437</v>
+        <v>0.1544101743447235</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2243471327778225</v>
+        <v>0.2248492189134037</v>
       </c>
     </row>
     <row r="10">
@@ -4282,19 +4282,19 @@
         <v>45174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35072</v>
+        <v>34659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58926</v>
+        <v>59749</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07472677121972079</v>
+        <v>0.07472677121972078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05801671218111727</v>
+        <v>0.05733208146134451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09747424422294541</v>
+        <v>0.09883721361520607</v>
       </c>
     </row>
     <row r="12">
@@ -4311,19 +4311,19 @@
         <v>8197</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4256</v>
+        <v>4251</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15070</v>
+        <v>15418</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01355969569003129</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00704051142241326</v>
+        <v>0.007031475912068364</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02492805137664525</v>
+        <v>0.02550407383682843</v>
       </c>
     </row>
     <row r="13">
@@ -4340,19 +4340,19 @@
         <v>30322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22343</v>
+        <v>22685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39632</v>
+        <v>40016</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05015794643413321</v>
+        <v>0.0501579464341332</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0369591879582731</v>
+        <v>0.03752468973443699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0655588450060276</v>
+        <v>0.06619428490541389</v>
       </c>
     </row>
     <row r="14">
@@ -4369,19 +4369,19 @@
         <v>406548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>384937</v>
+        <v>385692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>427106</v>
+        <v>426443</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6725084903100196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6367608716666504</v>
+        <v>0.6380090839785564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7065163994146294</v>
+        <v>0.7054198895735474</v>
       </c>
     </row>
     <row r="15">
@@ -4398,19 +4398,19 @@
         <v>19263</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12655</v>
+        <v>12102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>28977</v>
+        <v>29013</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03186392094780814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02093434915750412</v>
+        <v>0.02001833910199666</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04793343461608626</v>
+        <v>0.04799328346668587</v>
       </c>
     </row>
     <row r="16">
@@ -4427,19 +4427,19 @@
         <v>95021</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79432</v>
+        <v>79249</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114021</v>
+        <v>113873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1571831753982871</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1313953017798136</v>
+        <v>0.1310927858210004</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1886132974039092</v>
+        <v>0.188367469974029</v>
       </c>
     </row>
     <row r="17">
@@ -4489,19 +4489,19 @@
         <v>48684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36965</v>
+        <v>37380</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62398</v>
+        <v>63389</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1059046772671434</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08041300136334902</v>
+        <v>0.08131551032471206</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1357379210433765</v>
+        <v>0.1378948934953511</v>
       </c>
     </row>
     <row r="19">
@@ -4518,19 +4518,19 @@
         <v>3727</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1439</v>
+        <v>1386</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9062</v>
+        <v>8216</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.008106987488173744</v>
+        <v>0.008106987488173746</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003129337149084868</v>
+        <v>0.003014771980335847</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01971428521900364</v>
+        <v>0.0178724421322567</v>
       </c>
     </row>
     <row r="20">
@@ -4547,19 +4547,19 @@
         <v>3389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1281</v>
+        <v>1299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7664</v>
+        <v>7381</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.007372087630567035</v>
+        <v>0.007372087630567037</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002785845323055492</v>
+        <v>0.002825778849686538</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0166726015034189</v>
+        <v>0.01605544801129984</v>
       </c>
     </row>
     <row r="21">
@@ -4576,19 +4576,19 @@
         <v>327854</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>311165</v>
+        <v>307365</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>347117</v>
+        <v>344738</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7132025899323826</v>
+        <v>0.7132025899323827</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6768990912974436</v>
+        <v>0.6686329976167836</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7551067007665613</v>
+        <v>0.7499332185888404</v>
       </c>
     </row>
     <row r="22">
@@ -4605,19 +4605,19 @@
         <v>14457</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8137</v>
+        <v>8522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23195</v>
+        <v>23189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03144838248188928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01770022728767739</v>
+        <v>0.01853920430152706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05045812048252661</v>
+        <v>0.05044501841305934</v>
       </c>
     </row>
     <row r="23">
@@ -4634,19 +4634,19 @@
         <v>61583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49282</v>
+        <v>48651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>76731</v>
+        <v>75921</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1339652751998438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.107207616865255</v>
+        <v>0.105833798134248</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.166917954530322</v>
+        <v>0.1651562150037</v>
       </c>
     </row>
     <row r="24">
@@ -4696,19 +4696,19 @@
         <v>19102</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12458</v>
+        <v>12403</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28539</v>
+        <v>27635</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02954064726403991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01926504965031873</v>
+        <v>0.01918059845217846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04413296617764324</v>
+        <v>0.04273617499409983</v>
       </c>
     </row>
     <row r="26">
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3129</v>
+        <v>3103</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0009440492527900114</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.004838681020822121</v>
+        <v>0.0047982531465387</v>
       </c>
     </row>
     <row r="27">
@@ -4754,19 +4754,19 @@
         <v>16874</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11211</v>
+        <v>11714</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>24314</v>
+        <v>23849</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02609421499812231</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01733726630724393</v>
+        <v>0.01811482587983512</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03760011520079784</v>
+        <v>0.0368812749577277</v>
       </c>
     </row>
     <row r="28">
@@ -4783,19 +4783,19 @@
         <v>490196</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>470929</v>
+        <v>470186</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>508853</v>
+        <v>508403</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7580539449398224</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.728259356507472</v>
+        <v>0.7271098800934358</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7869066424092223</v>
+        <v>0.786209699269141</v>
       </c>
     </row>
     <row r="29">
@@ -4812,19 +4812,19 @@
         <v>16591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10907</v>
+        <v>10583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25096</v>
+        <v>24713</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02565684967808694</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01686745856636993</v>
+        <v>0.01636549344621817</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03880989242136863</v>
+        <v>0.03821734704016763</v>
       </c>
     </row>
     <row r="30">
@@ -4841,19 +4841,19 @@
         <v>103277</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>86986</v>
+        <v>89107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>120975</v>
+        <v>121093</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1597102938671384</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.134518460149909</v>
+        <v>0.1377981740592305</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1870789758795139</v>
+        <v>0.1872614276520897</v>
       </c>
     </row>
     <row r="31">
@@ -4903,19 +4903,19 @@
         <v>126478</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>107292</v>
+        <v>107872</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>147562</v>
+        <v>146003</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06027111355547678</v>
+        <v>0.0602711135554768</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05112818457171163</v>
+        <v>0.05140470134805887</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07031817319941891</v>
+        <v>0.06957551722700483</v>
       </c>
     </row>
     <row r="33">
@@ -4932,19 +4932,19 @@
         <v>13343</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8204</v>
+        <v>7743</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>21576</v>
+        <v>20622</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.006358224600480849</v>
+        <v>0.006358224600480851</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003909278888543352</v>
+        <v>0.003689993479518078</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01028174887156901</v>
+        <v>0.009826907985816829</v>
       </c>
     </row>
     <row r="34">
@@ -4961,19 +4961,19 @@
         <v>72158</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>60863</v>
+        <v>60257</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>86393</v>
+        <v>85296</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.0343856520752413</v>
+        <v>0.03438565207524131</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02900333903817585</v>
+        <v>0.02871449201139544</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04116907640605328</v>
+        <v>0.04064664315684325</v>
       </c>
     </row>
     <row r="35">
@@ -4990,19 +4990,19 @@
         <v>1491100</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1453333</v>
+        <v>1453575</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1529061</v>
+        <v>1528088</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.7105597057032631</v>
+        <v>0.710559705703263</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6925622873899351</v>
+        <v>0.6926777495126158</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7286491922959438</v>
+        <v>0.7281853964902747</v>
       </c>
     </row>
     <row r="36">
@@ -5019,19 +5019,19 @@
         <v>62870</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>48515</v>
+        <v>50070</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>80018</v>
+        <v>79898</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.02995957642981256</v>
+        <v>0.02995957642981257</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02311883783990058</v>
+        <v>0.02386017405725543</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03813136621100815</v>
+        <v>0.03807414864978555</v>
       </c>
     </row>
     <row r="37">
@@ -5048,19 +5048,19 @@
         <v>332538</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>305085</v>
+        <v>301300</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>359741</v>
+        <v>365981</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1584657276357253</v>
+        <v>0.1584657276357254</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1453830844438813</v>
+        <v>0.1435794621996855</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1714287999777393</v>
+        <v>0.17440229013168</v>
       </c>
     </row>
     <row r="38">
